--- a/Form mẫu import product.xlsx
+++ b/Form mẫu import product.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>Tên danh mục hàng hóa</t>
   </si>
@@ -170,6 +170,9 @@
 Công suất 6W, 2.0 kênh cho âm thanh stereo. 
 Kết nối đa dạng thiết bị với cổng âm thanh 3.5 mm và nguồn từ USB.
 Tăng giảm âm lượng nhanh chóng với bộ điều khiển trên dây</t>
+  </si>
+  <si>
+    <t>Ngày hỏi giá</t>
   </si>
 </sst>
 </file>
@@ -237,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -264,6 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -545,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,15 +561,16 @@
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.21875" customWidth="1"/>
     <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -582,25 +587,28 @@
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -616,24 +624,27 @@
       <c r="E2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10">
+        <v>45935</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="69" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="69" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -649,18 +660,21 @@
       <c r="E3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="5">
+      <c r="F3" s="10">
+        <v>45935</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5">
         <v>52000</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -676,18 +690,21 @@
       <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="5">
+      <c r="F4" s="10">
+        <v>45935</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5">
         <v>119000</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -703,18 +720,21 @@
       <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="5">
+      <c r="F5" s="10">
+        <v>45935</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="5">
         <v>180000</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -730,18 +750,21 @@
       <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="7">
+      <c r="F6" s="10">
+        <v>45935</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="7">
         <v>320000</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -757,18 +780,21 @@
       <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="7">
+      <c r="F7" s="10">
+        <v>45935</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="7">
         <v>770000</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -784,16 +810,19 @@
       <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="7">
+      <c r="F8" s="10">
+        <v>45935</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="7">
         <v>180000</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
